--- a/src/statistics/regression.xlsx
+++ b/src/statistics/regression.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>x</t>
   </si>
@@ -347,179 +347,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>119</v>
       </c>
     </row>
